--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optimal values of the mtry, splitrule and min.node.size paramaters for Random Forest models of lung function abnormalities and paramaters found by cross-validation tuning.</t>
+          <t>Selection of machine learning algorithm paramaters by cross-validation-mediated tuning.</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Performance of Random Forest classifiers at prediction of lung function testing (LFT) abnormalities in the training dataset and cross-validation (CV). CV results for any LFT abnormalities and diffusion capacity for CO (DLCO) &lt; 80% reference are presented. The entire table is available in a supplementary Excel file.</t>
+          <t>Performance of binary machine learining classifiers at predicting lung function testing (LFT) abnormalities in the CovILD study participants.</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Performance of Random Forest regression models at prediction of lung function testing (LFT) variables in the training dataset and cross-validation (CV). CV results for diffusion capacity for CO (DLCO), forced vital capacity (FVC) and forced expiratory volume in 1 second (FEV1) are presented. The entire table is available in a supplementary Excel file.</t>
+          <t>Performance of regression machine learning models at predicting lung function testing parameters in the CovILD study participants.</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -755,425 +755,543 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Model type</t>
+          <t>Response</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LFT variable</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Participant matching</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mtry</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>splitrule</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>min.node.size</t>
+          <t>Parameters</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LFT findings</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>gini</t>
-        </is>
-      </c>
-      <c r="F2">
-        <v>3</v>
+          <t>mtry = 4
+splitrule = gini
+min.node.size = 1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LFT findings</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>29</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>extratrees</t>
-        </is>
-      </c>
-      <c r="F3">
-        <v>1</v>
+          <t>size = 9
+decay = 1e-05</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>Support vector machines, radial kernel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>gini</t>
-        </is>
-      </c>
-      <c r="F4">
-        <v>3</v>
+          <t>sigma = 0.01529346
+C = 0.1</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>Gradiant boosted machines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>gini</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>3</v>
+          <t>n.trees = 100
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 10</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>DLCO &lt; 80%</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FVC &lt; 80%</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>extratrees</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>3</v>
+          <t>mtry = 16
+splitrule = gini
+min.node.size = 1</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>DLCO &lt; 80%</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FVC &lt; 80%</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>gini</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>1</v>
+          <t>size = 9
+decay = 1e-05</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>DLCO &lt; 80%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FEV1 &lt; 80%</t>
+          <t>Support vector machines, radial kernel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>gini</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>3</v>
+          <t>sigma = 0.01529346
+C = 0.1</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>DLCO &lt; 80%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FEV1 &lt; 80%</t>
+          <t>Gradiant boosted machines</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>extratrees</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>1</v>
+          <t>n.trees = 100
+interaction.depth = 2
+shrinkage = 0.1
+n.minobsinnode = 10</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="F10">
-        <v>7</v>
+          <t>mtry = 14
+splitrule = gini
+min.node.size = 1</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="F11">
-        <v>3</v>
+          <t>size = 1
+decay = 0.1</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FVC</t>
+          <t>Support vector machines, radial kernel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>maxstat</t>
-        </is>
-      </c>
-      <c r="F12">
-        <v>3</v>
+          <t>sigma = 0.01529346
+C = 1.1</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FVC</t>
+          <t>Gradiant boosted machines</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>extratrees</t>
-        </is>
-      </c>
-      <c r="F13">
-        <v>3</v>
+          <t>n.trees = 150
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 15</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FEV1</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="F14">
-        <v>5</v>
+          <t>mtry = 16
+splitrule = gini
+min.node.size = 1</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Neural network</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>size = 11
+decay = 1e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FEV1 &lt; 80%</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Support vector machines, radial kernel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sigma = 0.01529346
+C = 0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FEV1 &lt; 80%</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gradiant boosted machines</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>n.trees = 150
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DLCO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mtry = 8
+splitrule = variance
+min.node.size = 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DLCO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Neural network</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>size = 13
+decay = 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DLCO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Support vector machines, radial kernel</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sigma = 0.01691549
+C = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DLCO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gradiant boosted machines</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>n.trees = 150
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FVC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>mtry = 2
+splitrule = extratrees
+min.node.size = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FVC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Neural network</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>size = 1
+decay = 1e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FVC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Support vector machines, radial kernel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sigma = 0.01691549
+C = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FVC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gradiant boosted machines</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>n.trees = 50
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>FEV1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>extratrees</t>
-        </is>
-      </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mtry = 2
+splitrule = variance
+min.node.size = 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FEV1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Neural network</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>size = 1
+decay = 1e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FEV1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Support vector machines, radial kernel</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sigma = 0.01691549
+C = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FEV1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gradiant boosted machines</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>n.trees = 50
+interaction.depth = 1
+shrinkage = 0.1
+n.minobsinnode = 5</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,39 +1310,64 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LFT variable</t>
+          <t>Response</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Participant matching</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Data type</t>
+          <t>Data set</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Statistic name</t>
+          <t>Overall accuracy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Statistic value</t>
+          <t>κ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Brier score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1232,53 +1375,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>0.97</v>
+      </c>
+      <c r="F2">
+        <v>0.033</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.97</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.73</v>
+      </c>
+      <c r="H3">
+        <v>0.43</v>
+      </c>
+      <c r="I3">
+        <v>0.87</v>
+      </c>
+      <c r="J3">
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1286,53 +1451,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D4">
+        <v>0.88</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.094</v>
+      </c>
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+      <c r="H4">
+        <v>0.82</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
+      </c>
+      <c r="J4">
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.28</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="G5">
+        <v>0.68</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+      <c r="J5">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1340,53 +1527,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.45</v>
+      </c>
+      <c r="F6">
+        <v>0.16</v>
+      </c>
+      <c r="G6">
+        <v>0.82</v>
+      </c>
+      <c r="H6">
+        <v>0.62</v>
+      </c>
+      <c r="I6">
+        <v>0.82</v>
+      </c>
+      <c r="J6">
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.31</v>
+      </c>
+      <c r="F7">
+        <v>0.22</v>
+      </c>
+      <c r="G7">
+        <v>0.73</v>
+      </c>
+      <c r="H7">
+        <v>0.58</v>
+      </c>
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7">
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1394,42 +1603,64 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.54</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
+      <c r="G8">
+        <v>0.89</v>
+      </c>
+      <c r="H8">
+        <v>0.62</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>any LFT findings</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.71</v>
+      </c>
+      <c r="E9">
+        <v>0.33</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.74</v>
+      </c>
+      <c r="H9">
+        <v>0.47</v>
+      </c>
+      <c r="I9">
+        <v>0.86</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -1440,7 +1671,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1448,15 +1679,26 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1467,23 +1709,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.32 [95% CI: -0.36 - 0.64]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.85</v>
+      </c>
+      <c r="E11">
+        <v>0.48</v>
+      </c>
+      <c r="F11">
+        <v>0.11</v>
+      </c>
+      <c r="G11">
+        <v>0.89</v>
+      </c>
+      <c r="H11">
+        <v>0.53</v>
+      </c>
+      <c r="I11">
+        <v>0.93</v>
+      </c>
+      <c r="J11">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -1494,23 +1747,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.15 [95% CI: 0.047 - 0.3]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.93</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
+      </c>
+      <c r="F12">
+        <v>0.051</v>
+      </c>
+      <c r="G12">
+        <v>0.96</v>
+      </c>
+      <c r="H12">
+        <v>0.71</v>
+      </c>
+      <c r="I12">
+        <v>0.99</v>
+      </c>
+      <c r="J12">
+        <v>1.7</v>
       </c>
     </row>
     <row r="13">
@@ -1521,23 +1785,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.85 [95% CI: 0.7 - 0.95]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.44</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
+      </c>
+      <c r="G13">
+        <v>0.84</v>
+      </c>
+      <c r="H13">
+        <v>0.61</v>
+      </c>
+      <c r="I13">
+        <v>0.88</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -1548,23 +1823,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.75 [95% CI: 0.48 - 0.93]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.95</v>
+      </c>
+      <c r="H14">
+        <v>0.76</v>
+      </c>
+      <c r="I14">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J14">
+        <v>1.7</v>
       </c>
     </row>
     <row r="15">
@@ -1575,23 +1861,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5 [95% CI: -0.046 - 0.78]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.82</v>
+      </c>
+      <c r="E15">
+        <v>0.44</v>
+      </c>
+      <c r="F15">
+        <v>0.14</v>
+      </c>
+      <c r="G15">
+        <v>0.85</v>
+      </c>
+      <c r="H15">
+        <v>0.57</v>
+      </c>
+      <c r="I15">
+        <v>0.89</v>
+      </c>
+      <c r="J15">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
@@ -1602,23 +1899,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.89 [95% CI: 0.7 - 1]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.83</v>
+      </c>
+      <c r="F16">
+        <v>0.042</v>
+      </c>
+      <c r="G16">
+        <v>0.99</v>
+      </c>
+      <c r="H16">
+        <v>0.82</v>
+      </c>
+      <c r="I16">
+        <v>0.98</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -1629,88 +1937,121 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.93 [95% CI: 0.76 - 1]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.84</v>
+      </c>
+      <c r="E17">
+        <v>0.48</v>
+      </c>
+      <c r="F17">
+        <v>0.12</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+      <c r="H17">
+        <v>0.54</v>
+      </c>
+      <c r="I17">
+        <v>0.93</v>
+      </c>
+      <c r="J17">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.57 [95% CI: 0 - 1]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.016</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.11 [95% CI: 0.053 - 0.23]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.78</v>
+      </c>
+      <c r="E19">
+        <v>0.12</v>
+      </c>
+      <c r="F19">
+        <v>0.16</v>
+      </c>
+      <c r="G19">
+        <v>0.66</v>
+      </c>
+      <c r="H19">
+        <v>0.17</v>
+      </c>
+      <c r="I19">
+        <v>0.93</v>
+      </c>
+      <c r="J19">
+        <v>1.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1718,53 +2059,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.16</v>
+      </c>
+      <c r="G20">
+        <v>0.44</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.78</v>
+      </c>
+      <c r="E21">
+        <v>0.13</v>
+      </c>
+      <c r="F21">
+        <v>0.18</v>
+      </c>
+      <c r="G21">
+        <v>0.59</v>
+      </c>
+      <c r="H21">
+        <v>0.22</v>
+      </c>
+      <c r="I21">
+        <v>0.91</v>
+      </c>
+      <c r="J21">
+        <v>1.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1772,53 +2135,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D22">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>0.61</v>
+      </c>
+      <c r="F22">
+        <v>0.078</v>
+      </c>
+      <c r="G22">
+        <v>0.96</v>
+      </c>
+      <c r="H22">
+        <v>0.51</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.78</v>
+      </c>
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>0.17</v>
+      </c>
+      <c r="G23">
+        <v>0.66</v>
+      </c>
+      <c r="H23">
+        <v>0.18</v>
+      </c>
+      <c r="I23">
+        <v>0.93</v>
+      </c>
+      <c r="J23">
+        <v>1.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1826,53 +2211,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D24">
+        <v>0.85</v>
+      </c>
+      <c r="E24">
+        <v>0.42</v>
+      </c>
+      <c r="F24">
+        <v>0.096</v>
+      </c>
+      <c r="G24">
+        <v>0.89</v>
+      </c>
+      <c r="H24">
+        <v>0.35</v>
+      </c>
+      <c r="I24">
+        <v>0.98</v>
+      </c>
+      <c r="J24">
+        <v>1.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.8</v>
+      </c>
+      <c r="E25">
+        <v>0.16</v>
+      </c>
+      <c r="F25">
+        <v>0.16</v>
+      </c>
+      <c r="G25">
+        <v>0.68</v>
+      </c>
+      <c r="H25">
+        <v>0.18</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+      <c r="J25">
+        <v>1.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1880,53 +2287,75 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.016</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.8</v>
+      </c>
+      <c r="E27">
+        <v>0.12</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+      <c r="G27">
+        <v>0.64</v>
+      </c>
+      <c r="H27">
+        <v>0.16</v>
+      </c>
+      <c r="I27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J27">
+        <v>1.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1934,3174 +2363,216 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
+      <c r="D28">
+        <v>0.93</v>
+      </c>
+      <c r="E28">
+        <v>0.78</v>
+      </c>
+      <c r="F28">
+        <v>0.046</v>
+      </c>
+      <c r="G28">
+        <v>0.97</v>
+      </c>
+      <c r="H28">
+        <v>0.92</v>
+      </c>
+      <c r="I28">
+        <v>0.93</v>
+      </c>
+      <c r="J28">
+        <v>1.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.6 [95% CI: 0.36 - 0.82]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.76</v>
+      </c>
+      <c r="E29">
+        <v>0.11</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.57</v>
+      </c>
+      <c r="H29">
+        <v>0.26</v>
+      </c>
+      <c r="I29">
+        <v>0.87</v>
+      </c>
+      <c r="J29">
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.082 [95% CI: 0.021 - 0.16]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.91</v>
+      </c>
+      <c r="E30">
+        <v>0.63</v>
+      </c>
+      <c r="F30">
+        <v>0.074</v>
+      </c>
+      <c r="G30">
+        <v>0.97</v>
+      </c>
+      <c r="H30">
+        <v>0.51</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.92 [95% CI: 0.84 - 0.98]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
+        <v>0.12</v>
+      </c>
+      <c r="F31">
+        <v>0.16</v>
+      </c>
+      <c r="G31">
+        <v>0.58</v>
+      </c>
+      <c r="H31">
+        <v>0.18</v>
+      </c>
+      <c r="I31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J31">
+        <v>1.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.86 [95% CI: 0.74 - 0.98]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.88</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.089</v>
+      </c>
+      <c r="G32">
+        <v>0.89</v>
+      </c>
+      <c r="H32">
+        <v>0.4</v>
+      </c>
+      <c r="I32">
+        <v>0.99</v>
+      </c>
+      <c r="J32">
+        <v>1.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.75 [95% CI: 0.54 - 0.94]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>DLCO &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.95 [95% CI: 0.89 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>DLCO &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.96 [95% CI: 0.88 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DLCO &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.76 [95% CI: 0.5 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>DLCO &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.07 [95% CI: 0.027 - 0.12]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-Inf [95% CI: -1.3 - 0.24]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.21 [95% CI: 0.063 - 0.39]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.79 [95% CI: 0.61 - 0.94]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.56 [95% CI: 0.44 - 0.74]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.13 [95% CI: -0.1 - 0.47]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.65 [95% CI: 0.35 - 0.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.93 [95% CI: 0.76 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.18 [95% CI: 0 - 0.59]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.16 [95% CI: 0.077 - 0.25]</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.018</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.31 [95% CI: -0.079 - 0.58]</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.15 [95% CI: 0.057 - 0.27]</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.85 [95% CI: 0.73 - 0.94]</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.69 [95% CI: 0.54 - 0.85]</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.43 [95% CI: 0.11 - 0.74]</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.86 [95% CI: 0.61 - 0.98]</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.96 [95% CI: 0.86 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.43 [95% CI: 0.097 - 0.74]</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.1 [95% CI: 0.052 - 0.18]</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-Inf [95% CI: -2.5 - 0.24]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.22 [95% CI: 0.066 - 0.37]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.78 [95% CI: 0.63 - 0.93]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.55 [95% CI: 0.41 - 0.71]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0.12 [95% CI: -0.16 - 0.49]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.65 [95% CI: 0.35 - 0.88]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0.94 [95% CI: 0.81 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.16 [95% CI: 0 - 0.5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0.17 [95% CI: 0.083 - 0.24]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0.32 [95% CI: -0.0045 - 0.71]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0.14 [95% CI: 0.031 - 0.25]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0.86 [95% CI: 0.75 - 0.97]</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0.75 [95% CI: 0.6 - 0.98]</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.52 [95% CI: 0.25 - 0.88]</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0.85 [95% CI: 0.71 - 0.99]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.94 [95% CI: 0.82 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0.55 [95% CI: 0.25 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0.11 [95% CI: 0.035 - 0.17]</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0.11 [95% CI: -0.38 - 0.45]</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0.3 [95% CI: 0.14 - 0.54]</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0.7 [95% CI: 0.46 - 0.86]</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0.65 [95% CI: 0.42 - 0.83]</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0.3 [95% CI: -0.17 - 0.61]</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0.73 [95% CI: 0.48 - 0.96]</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0.85 [95% CI: 0.62 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0.44 [95% CI: 0.038 - 0.76]</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0.2 [95% CI: 0.12 - 0.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>0.45 [95% CI: 0.22 - 0.65]</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>classification error</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>0.17 [95% CI: 0.072 - 0.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0.83 [95% CI: 0.7 - 0.93]</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>C-index</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0.81 [95% CI: 0.68 - 0.92]</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>κ</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0.63 [95% CI: 0.37 - 0.85]</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>AUC, ROC</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>0.89 [95% CI: 0.8 - 0.98]</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>0.89 [95% CI: 0.78 - 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0.74 [95% CI: 0.48 - 0.94]</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>LFT findings</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>0.13 [95% CI: 0.082 - 0.19]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.19</v>
+      </c>
+      <c r="F33">
+        <v>0.15</v>
+      </c>
+      <c r="G33">
+        <v>0.62</v>
+      </c>
+      <c r="H33">
+        <v>0.22</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+      <c r="J33">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5120,27 +2591,32 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LFT variable</t>
+          <t>Response</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Participant matching</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Data type</t>
+          <t>Data set</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Statistic name</t>
+          <t>pseudo-R²</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Statistic value</t>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ρ</t>
         </is>
       </c>
     </row>
@@ -5152,7 +2628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5160,15 +2636,14 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="D2">
+        <v>0.89</v>
+      </c>
+      <c r="E2">
+        <v>4.7</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -5179,23 +2654,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.29</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5206,7 +2680,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5214,15 +2688,14 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
+      <c r="D4">
+        <v>0.0024</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -5233,23 +2706,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.0074</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -5260,7 +2732,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5268,15 +2740,14 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D6">
+        <v>0.54</v>
+      </c>
+      <c r="E6">
+        <v>9.6</v>
+      </c>
+      <c r="F6">
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -5287,23 +2758,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>12 [95% CI: 9.3 - 16]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.24</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
@@ -5314,23 +2784,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15 [95% CI: 11 - 20]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.66</v>
+      </c>
+      <c r="E8">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.76</v>
       </c>
     </row>
     <row r="9">
@@ -5341,88 +2810,85 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.29 [95% CI: -0.037 - 0.59]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.33</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.61 [95% CI: 0.37 - 0.85]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.61</v>
+      </c>
+      <c r="E10">
+        <v>6.5</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.99 [95% CI: 0.72 - 1.3]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>-0.038</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5430,53 +2896,48 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
+      <c r="D12">
+        <v>0.0024</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>-0.083</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5484,53 +2945,51 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+      <c r="E14">
+        <v>8.9</v>
+      </c>
+      <c r="F14">
+        <v>0.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>-0.04</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5538,150 +2997,141 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D16">
+        <v>0.28</v>
+      </c>
+      <c r="E16">
+        <v>8.9</v>
+      </c>
+      <c r="F16">
+        <v>0.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FVC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>8.3 [95% CI: 6.5 - 10]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>-0.047</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FEV1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>11 [95% CI: 7.9 - 15]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.67</v>
+      </c>
+      <c r="E18">
+        <v>6.6</v>
+      </c>
+      <c r="F18">
+        <v>0.92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FEV1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.64 [95% CI: 0.41 - 0.82]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>-0.06</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FEV1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.82 [95% CI: 0.65 - 0.92]</t>
-        </is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.0024</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DLCO</t>
+          <t>FEV1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>unmatched</t>
+          <t>Neural network</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.99 [95% CI: 0.71 - 1.3]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>-0.045</v>
       </c>
     </row>
     <row r="22">
@@ -5692,7 +3142,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5700,15 +3150,14 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <v>9.9</v>
+      </c>
+      <c r="F22">
+        <v>0.57</v>
       </c>
     </row>
     <row r="23">
@@ -5719,23 +3168,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>SVM radial</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>-0.055</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -5746,7 +3194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5754,15 +3202,14 @@
           <t>training</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.55</v>
       </c>
     </row>
     <row r="25">
@@ -5773,995 +3220,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>GBM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>12 [95% CI: 8.5 - 14]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>15 [95% CI: 11 - 19]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-0.058 [95% CI: -0.48 - 0.21]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.17 [95% CI: -0.36 - 0.68]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.99 [95% CI: 0.72 - 1.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6.6 [95% CI: 4.7 - 8.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>9.1 [95% CI: 6.5 - 13]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.62 [95% CI: 0.41 - 0.76]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.82 [95% CI: 0.66 - 0.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FEV1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.98 [95% CI: 0.71 - 1.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10 [95% CI: 8 - 15]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>13 [95% CI: 9.8 - 19]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-0.052 [95% CI: -0.55 - 0.21]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.23 [95% CI: -0.32 - 0.65]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.99 [95% CI: 0.74 - 1.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>6.6 [95% CI: 5.2 - 8.5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>8.7 [95% CI: 6.7 - 11]</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.56 [95% CI: 0.36 - 0.71]</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Pearson r</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0.77 [95% CI: 0.65 - 0.87]</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>FVC</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>unmatched</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>normalized RMSE</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.99 [95% CI: 0.76 - 1.3]</t>
-        </is>
+          <t>cross-validation</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>-0.034</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -16305,7 +12779,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cutoff</t>
+          <t>CTSS cutoff</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gradiant boosted machines</t>
+          <t>Gradient boosted machines</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3517,7 +3517,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3619,19 +3619,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>high opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.01 [IQR: 0 - 0.23]
-range: 0 - 11</t>
+          <t>0 [IQR: 0 - 0.005]
+range: 0 - 1.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.45 [IQR: 0.03 - 3.3]
-range: 0 - 37</t>
+          <t>0.011 [IQR: 0 - 0.17]
+range: 0 - 3.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3641,41 +3641,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>r = 0.39</t>
+          <t>r = 0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>any LFT findings</t>
+          <t>DLCO &lt; 80%</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>high opacity, AI, % of lung</t>
+          <t>Observations, n</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0.005]
-range: 0 - 1.2</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.011 [IQR: 0 - 0.17]
-range: 0 - 3.1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>r = 0.4</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3675,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Observations, n</t>
+          <t>CTSS, points</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1 [IQR: 0 - 5]
+range: 0 - 20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>10 [IQR: 4 - 15]
+range: 0 - 20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>r = 0.42</t>
         </is>
       </c>
     </row>
@@ -3709,19 +3709,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CTSS, points</t>
+          <t>high opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 [IQR: 0 - 5]
-range: 0 - 20</t>
+          <t>0 [IQR: 0 - 0.01]
+range: 0 - 2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10 [IQR: 4 - 15]
-range: 0 - 20</t>
+          <t>0.063 [IQR: 0.0075 - 0.38]
+range: 0 - 3.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3731,75 +3731,63 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>r = 0.42</t>
+          <t>r = 0.46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>Observations, n</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.01 [IQR: 0 - 0.31]
-range: 0 - 22</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.3 [IQR: 0.19 - 5.3]
-range: 0 - 37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>r = 0.46</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DLCO &lt; 80%</t>
+          <t>FVC &lt; 80%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>high opacity, AI, % of lung</t>
+          <t>CTSS, points</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0.01]
-range: 0 - 2.4</t>
+          <t>2 [IQR: 0 - 7]
+range: 0 - 20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.063 [IQR: 0.0075 - 0.38]
-range: 0 - 3.1</t>
+          <t>5 [IQR: 0 - 12]
+range: 0 - 20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0092</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>r = 0.46</t>
+          <t>r = 0.15</t>
         </is>
       </c>
     </row>
@@ -3811,92 +3799,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Observations, n</t>
+          <t>high opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>0 [IQR: 0 - 0.017]
+range: 0 - 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>0.01 [IQR: 0 - 0.19]
+range: 0 - 3.1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>r = 0.22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FVC &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Observations, n</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FEV1 &lt; 80%</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>CTSS, points</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2 [IQR: 0 - 7]
 range: 0 - 20</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5 [IQR: 0 - 12]
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 [IQR: 0 - 12]
 range: 0 - 20</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p = 0.0092</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>r = 0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FVC &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>opactity, AI, % of lung</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.03 [IQR: 0 - 0.53]
-range: 0 - 31</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.43 [IQR: 5e-04 - 2.7]
-range: 0 - 37</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>r = 0.2</t>
+          <t>r = 0.14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FVC &lt; 80%</t>
+          <t>FEV1 &lt; 80%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3905,147 +3893,23 @@
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0.017]
-range: 0 - 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01 [IQR: 0 - 0.19]
-range: 0 - 3.1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>r = 0.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Observations, n</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CTSS, points</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0 - 7]
-range: 0 - 20</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4 [IQR: 0 - 12]
-range: 0 - 20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>p = 0.014</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>r = 0.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>opactity, AI, % of lung</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.03 [IQR: 0 - 0.55]
-range: 0 - 31</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.33 [IQR: 0.001 - 2.5]
-range: 0 - 37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p = 0.0016</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>r = 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FEV1 &lt; 80%</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>high opacity, AI, % of lung</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 0.017]
 range: 0 - 3.1</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.016 [IQR: 0 - 0.2]
 range: 0 - 2.5</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>r = 0.22</t>
         </is>
@@ -4124,7 +3988,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C3">
@@ -4199,7 +4063,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C6">
@@ -4274,7 +4138,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C9">
@@ -4384,7 +4248,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4489,7 +4353,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4594,7 +4458,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4699,7 +4563,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4844,7 +4708,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4876,7 +4740,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.38 [0.27 - 0.49]</t>
+          <t>0.38 [0.26 - 0.5]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4903,7 +4767,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.35 [0.23 - 0.46]</t>
+          <t>0.35 [0.23 - 0.47]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4913,7 +4777,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.83 [0.76 - 0.88]</t>
+          <t>0.83 [0.77 - 0.88]</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4789,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4935,12 +4799,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.81 [0.71 - 0.89]</t>
+          <t>0.81 [0.72 - 0.89]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.69 [0.62 - 0.76]</t>
+          <t>0.69 [0.62 - 0.75]</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4831,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.68 [0.61 - 0.75]</t>
+          <t>0.68 [0.62 - 0.75]</t>
         </is>
       </c>
     </row>
@@ -4989,12 +4853,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.78 [0.66 - 0.89]</t>
+          <t>0.78 [0.64 - 0.89]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.68 [0.61 - 0.74]</t>
+          <t>0.68 [0.6 - 0.75]</t>
         </is>
       </c>
     </row>
@@ -5006,22 +4870,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.17 [0.06 - 0.27]</t>
+          <t>0.17 [0.065 - 0.27]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.67 [0.51 - 0.82]</t>
+          <t>0.67 [0.53 - 0.81]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.58 [0.5 - 0.65]</t>
+          <t>0.58 [0.51 - 0.65]</t>
         </is>
       </c>
     </row>
@@ -5038,12 +4902,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.23 [0.11 - 0.36]</t>
+          <t>0.23 [0.11 - 0.35]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.45 [0.32 - 0.59]</t>
+          <t>0.45 [0.32 - 0.58]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5065,17 +4929,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.16 [0.046 - 0.28]</t>
+          <t>0.16 [0.049 - 0.28]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.48 [0.34 - 0.63]</t>
+          <t>0.48 [0.34 - 0.64]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.72 [0.65 - 0.79]</t>
+          <t>0.72 [0.66 - 0.79]</t>
         </is>
       </c>
     </row>
@@ -5087,22 +4951,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.19 [0.077 - 0.3]</t>
+          <t>0.19 [0.075 - 0.31]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.44 [0.31 - 0.57]</t>
+          <t>0.44 [0.32 - 0.57]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.78 [0.71 - 0.84]</t>
+          <t>0.78 [0.72 - 0.84]</t>
         </is>
       </c>
     </row>
@@ -5119,7 +4983,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.21 [0.099 - 0.32]</t>
+          <t>0.21 [0.1 - 0.32]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5146,7 +5010,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.16 [0.046 - 0.28]</t>
+          <t>0.16 [0.05 - 0.28]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5659,7 +5523,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>opactity, AI</t>
+          <t>opacity, AI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -6573,7 +6437,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>antiinfectives during COVID-19</t>
+          <t>anti-infectives during COVID-19</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7777,7 +7641,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>antiinfectives during COVID-19</t>
+          <t>anti-infectives during COVID-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8021,7 +7885,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8309,7 +8173,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8645,7 +8509,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8981,7 +8845,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9317,7 +9181,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>opactity, AI, % of lung</t>
+          <t>opacity, AI, % of lung</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9410,7 +9274,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11135,7 +10999,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
